--- a/suppxls/Scen_demo_forcethings.xlsx
+++ b/suppxls/Scen_demo_forcethings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4475FD5-8131-4BE1-B3B4-31D70B72CD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41AA62-3B5B-4920-8596-3E9AF71283B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>~UC_T:2030</t>
+  </si>
+  <si>
+    <t>share-o</t>
+  </si>
+  <si>
+    <t>ELCTEGAS00</t>
+  </si>
+  <si>
+    <t>ELC</t>
   </si>
 </sst>
 </file>
@@ -374,15 +383,15 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -733,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +828,20 @@
       </c>
       <c r="P3" s="14" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1101,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/suppxls/Scen_demo_forcethings.xlsx
+++ b/suppxls/Scen_demo_forcethings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41AA62-3B5B-4920-8596-3E9AF71283B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A041064-8822-4402-B25E-566DE03CE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
-    <author>Gary Goldstein</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -46,32 +45,6 @@
             <family val="2"/>
           </rPr>
           <t>Insert Table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
         </r>
       </text>
     </comment>
@@ -116,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
@@ -247,10 +220,37 @@
     <t>share-o</t>
   </si>
   <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>ELCTECOA00</t>
+  </si>
+  <si>
+    <t>~TFM_TOPINS</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
     <t>ELCTEGAS00</t>
   </si>
   <si>
-    <t>ELC</t>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>ECurtWin</t>
+  </si>
+  <si>
+    <t>DE,IT</t>
   </si>
 </sst>
 </file>
@@ -742,48 +742,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
@@ -796,52 +784,61 @@
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="H4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
-        <v>44</v>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/suppxls/Scen_demo_forcethings.xlsx
+++ b/suppxls/Scen_demo_forcethings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A041064-8822-4402-B25E-566DE03CE584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE7FCF-19DD-46FF-B268-5657283AF97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
     <t>ECurtWin</t>
   </si>
   <si>
-    <t>DE,IT</t>
+    <t>DE,IT,UK</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
